--- a/biology/Zoologie/Chamaeleo_dilepis/Chamaeleo_dilepis.xlsx
+++ b/biology/Zoologie/Chamaeleo_dilepis/Chamaeleo_dilepis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caméléon Bilobé
-Chamaeleo dilepis, le Caméléon Bilobé[1], est une espèce de sauriens de la famille des Chamaeleonidae[2].
+Chamaeleo dilepis, le Caméléon Bilobé, est une espèce de sauriens de la famille des Chamaeleonidae.
 </t>
         </is>
       </c>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,9 +552,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud, en Swaziland, en Botswana, au Zimbabwe, en Angola, au Zimbabwe, en Zambie, au Malawi , au Mozambique, en Tanzanie, au Burundi, au Kenya, en Somalie, en Éthiopie, au Congo-Kinshasa, au Congo-Brazzaville, au Gabon, en Guinée équatoriale, au Cameroun, au Nigeria et au Togo[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud, en Swaziland, en Botswana, au Zimbabwe, en Angola, au Zimbabwe, en Zambie, au Malawi , au Mozambique, en Tanzanie, au Burundi, au Kenya, en Somalie, en Éthiopie, au Congo-Kinshasa, au Congo-Brazzaville, au Gabon, en Guinée équatoriale, au Cameroun, au Nigeria et au Togo.
 Sa présence est incertaine en Ouganda et en Centrafrique.
 </t>
         </is>
@@ -570,9 +586,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (7 juin 2012)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (7 juin 2012) :
 Chamaeleo dilepis dilepis Leach, 1819
 Chamaeleo dilepis idjwiensis Loveridge, 1942
 Chamaeleo dilepis isabellinus Günther, 1893
@@ -608,7 +626,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bocage, 1866 : Reptiles nouveaux ou peu recueillis dans les possessions portugaises de l'Afrique occidentale, qui se trouvent au Muséum de Lisbonne. Jornal de sciencias mathematicas, physicas e naturaes, Lisboa, vol. 1, p. 57-78 (texte intégral).
 Boettger, 1893 : Übersicht der von Prof. C. Keller anlässlich der Ruspolischen Expedition nach den Somaliländern gesammelten Reptilien und Batrachier. Zoologischer Anzeiger, vol. 16, n. 416, p. 113-119 (texte intégral).
